--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/92.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/92.xlsx
@@ -479,13 +479,13 @@
         <v>-6.882248770942926</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.499144916845003</v>
+        <v>-9.41118190529547</v>
       </c>
       <c r="F2" t="n">
-        <v>2.433263471966501</v>
+        <v>2.415477264984665</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.7086897409755</v>
+        <v>-14.986468444133</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.603433536808725</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.0550445536407</v>
+        <v>-10.00661894062391</v>
       </c>
       <c r="F3" t="n">
-        <v>2.522776298692847</v>
+        <v>2.511908036427695</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.41944631671507</v>
+        <v>-14.61776888027148</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.316985689220452</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.14525161934215</v>
+        <v>-10.13515582016197</v>
       </c>
       <c r="F4" t="n">
-        <v>2.425240611697894</v>
+        <v>2.439418731611947</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.8239115012493</v>
+        <v>-14.06842540168431</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.037044293544221</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.74896574329627</v>
+        <v>-10.72981550339857</v>
       </c>
       <c r="F5" t="n">
-        <v>2.726985226517018</v>
+        <v>2.692669287318141</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.30888396186101</v>
+        <v>-13.48947898651798</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.744966906628861</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.27951099048015</v>
+        <v>-11.33663414671318</v>
       </c>
       <c r="F6" t="n">
-        <v>2.713232450200386</v>
+        <v>2.722223333828642</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.04071215719699</v>
+        <v>-13.16084972293769</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.441948930701612</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.24742190297137</v>
+        <v>-12.26800462188108</v>
       </c>
       <c r="F7" t="n">
-        <v>2.809946784041697</v>
+        <v>2.776334861831657</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.5663367099071</v>
+        <v>-12.73219137886032</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.123577065032508</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.01215546808734</v>
+        <v>-12.9975617825896</v>
       </c>
       <c r="F8" t="n">
-        <v>3.024207509984245</v>
+        <v>2.989436893146745</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.15637392808881</v>
+        <v>-12.2959452961255</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.786999754276559</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.73325464691609</v>
+        <v>-13.68206185601263</v>
       </c>
       <c r="F9" t="n">
-        <v>3.179501924104931</v>
+        <v>3.129824725330209</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.0846179743031</v>
+        <v>-12.17480059497022</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.431021707863183</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.72006157094794</v>
+        <v>-14.63103275590142</v>
       </c>
       <c r="F10" t="n">
-        <v>3.49867095939774</v>
+        <v>3.447786175926889</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.63095724910833</v>
+        <v>-11.73763537894441</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.062222955425693</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.43523527345399</v>
+        <v>-15.34375706596715</v>
       </c>
       <c r="F11" t="n">
-        <v>3.569385554720797</v>
+        <v>3.498157613676713</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.04155324825367</v>
+        <v>-11.09956131472961</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.68340000774799</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.57803573958849</v>
+        <v>-16.44838416648478</v>
       </c>
       <c r="F12" t="n">
-        <v>3.853016399098001</v>
+        <v>3.783108489907984</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.57075166498349</v>
+        <v>-10.6352376655581</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.297325099713147</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.45383287370017</v>
+        <v>-17.30663954395796</v>
       </c>
       <c r="F13" t="n">
-        <v>4.212387737857451</v>
+        <v>4.09309108129786</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.00525979671491</v>
+        <v>-10.09048985342583</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.919313951688026</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.87862636691146</v>
+        <v>-18.67805974920314</v>
       </c>
       <c r="F14" t="n">
-        <v>4.273578547803759</v>
+        <v>4.158457103108512</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.515151525327283</v>
+        <v>-9.561616646590442</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.560307064344005</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.64067586725749</v>
+        <v>-19.40697645001209</v>
       </c>
       <c r="F15" t="n">
-        <v>4.454486468900213</v>
+        <v>4.320918801296097</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.911153838974876</v>
+        <v>-8.914610366829786</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.229411026131737</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.87540921851746</v>
+        <v>-20.58781827857806</v>
       </c>
       <c r="F16" t="n">
-        <v>4.397387757701513</v>
+        <v>4.256467023769557</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.676153945902875</v>
+        <v>-8.684890601174052</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.938604370770465</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.20735558231917</v>
+        <v>-21.86234325672785</v>
       </c>
       <c r="F17" t="n">
-        <v>4.779566313495121</v>
+        <v>4.65383572389867</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.385580711774653</v>
+        <v>-8.29934351964914</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.692991437468208</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.1025474066719</v>
+        <v>-22.78579354077135</v>
       </c>
       <c r="F18" t="n">
-        <v>4.881648776876306</v>
+        <v>4.757091548927914</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.93054128664341</v>
+        <v>-7.8496086669685</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.488332831616123</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.15671995632297</v>
+        <v>-23.78307271751213</v>
       </c>
       <c r="F19" t="n">
-        <v>5.031203496935234</v>
+        <v>4.888209824091706</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.337392306528688</v>
+        <v>-7.277555751484516</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.316127441385743</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.07335985380085</v>
+        <v>-24.6739719938357</v>
       </c>
       <c r="F20" t="n">
-        <v>5.273483121232071</v>
+        <v>5.079570441869624</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.926872177927573</v>
+        <v>-6.789862649489149</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.166444631111623</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.89554413860994</v>
+        <v>-25.51316024452792</v>
       </c>
       <c r="F21" t="n">
-        <v>5.383153323270707</v>
+        <v>5.202783192929614</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.363394580488158</v>
+        <v>-6.274595548764382</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.024603271678102</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.48886178946157</v>
+        <v>-26.07640316963772</v>
       </c>
       <c r="F22" t="n">
-        <v>5.389729037506708</v>
+        <v>5.207481528528719</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.128937367178385</v>
+        <v>-6.032658154948229</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.8765180222899296</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.13942482171791</v>
+        <v>-26.65862033039802</v>
       </c>
       <c r="F23" t="n">
-        <v>5.365865794989296</v>
+        <v>5.218643131205886</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.691654814987778</v>
+        <v>-5.631187578057774</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.7161880063690955</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.52004133981753</v>
+        <v>-27.09222146041784</v>
       </c>
       <c r="F24" t="n">
-        <v>5.520143295681664</v>
+        <v>5.359950096680329</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.426440859478243</v>
+        <v>-5.401575370553114</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.5393885542074109</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.77441392259969</v>
+        <v>-27.29512257890512</v>
       </c>
       <c r="F25" t="n">
-        <v>5.238204047680413</v>
+        <v>5.10502750062565</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.995650908406899</v>
+        <v>-4.969773395060319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.3469057948971048</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.85103688272141</v>
+        <v>-27.38230090485251</v>
       </c>
       <c r="F26" t="n">
-        <v>5.460360519713028</v>
+        <v>5.326563068786166</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.680353966552688</v>
+        <v>-4.673489800911539</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.1466479172635755</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.08731280658568</v>
+        <v>-27.59261131324659</v>
       </c>
       <c r="F27" t="n">
-        <v>5.383779116149673</v>
+        <v>5.255995143669116</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.509272949258733</v>
+        <v>-4.515609102158255</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.0498503544753638</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.87664061168345</v>
+        <v>-27.44953452728632</v>
       </c>
       <c r="F28" t="n">
-        <v>5.336121077210985</v>
+        <v>5.228059358431564</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.267677785923263</v>
+        <v>-4.34302227074929</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2296652240170728</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.93958901959841</v>
+        <v>-27.46798075019519</v>
       </c>
       <c r="F29" t="n">
-        <v>5.315694806521015</v>
+        <v>5.174994077898069</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.808815157422094</v>
+        <v>-3.954708011337703</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.3801815484466392</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.6454736999951</v>
+        <v>-27.2383367641459</v>
       </c>
       <c r="F30" t="n">
-        <v>5.286042979873176</v>
+        <v>5.167186333931606</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.970714619819983</v>
+        <v>-4.200038375919496</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4870172840998595</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.5633066060863</v>
+        <v>-27.13769655779045</v>
       </c>
       <c r="F31" t="n">
-        <v>5.40644455198469</v>
+        <v>5.254024873901749</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.210481294587225</v>
+        <v>-4.359004434197235</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.5381532625718856</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.10335861806067</v>
+        <v>-26.68607454845919</v>
       </c>
       <c r="F32" t="n">
-        <v>5.405628087837915</v>
+        <v>5.297331696728882</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.082027528165902</v>
+        <v>-4.312671316119482</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.5252323357333634</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.71892378559799</v>
+        <v>-26.36855555298396</v>
       </c>
       <c r="F33" t="n">
-        <v>5.156078510329976</v>
+        <v>5.111168093250495</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.944758882363531</v>
+        <v>-4.19729075406029</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.440993759837653</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.37385034742083</v>
+        <v>-26.03447993575393</v>
       </c>
       <c r="F34" t="n">
-        <v>5.281031747834588</v>
+        <v>5.239040067854655</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.849061461950538</v>
+        <v>-4.190607481673216</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2803386620249924</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.15406504371867</v>
+        <v>-25.83866543272025</v>
       </c>
       <c r="F35" t="n">
-        <v>5.42626947483003</v>
+        <v>5.370652132712006</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.175392892303377</v>
+        <v>-4.450106188155328</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.04373173053761738</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.48467689052127</v>
+        <v>-25.1898991104875</v>
       </c>
       <c r="F36" t="n">
-        <v>5.495580925182283</v>
+        <v>5.424176979890991</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.331655329783713</v>
+        <v>-4.586274807412643</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.2619578370602839</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.90514868353777</v>
+        <v>-24.69144041537119</v>
       </c>
       <c r="F37" t="n">
-        <v>5.495708039360824</v>
+        <v>5.437020400930376</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.465516337799844</v>
+        <v>-4.729361371386643</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.6291844706680607</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.35442650501414</v>
+        <v>-24.14191604352995</v>
       </c>
       <c r="F38" t="n">
-        <v>5.321669172912385</v>
+        <v>5.269718585944546</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.400878778012362</v>
+        <v>-4.635135542040591</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.044660160227557</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.80479457502183</v>
+        <v>-23.53523918141447</v>
       </c>
       <c r="F39" t="n">
-        <v>5.28638521035386</v>
+        <v>5.240956558546486</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.602667647437409</v>
+        <v>-4.861447669910084</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.488243517083322</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.17758388406531</v>
+        <v>-22.99704752749074</v>
       </c>
       <c r="F40" t="n">
-        <v>5.357877157768757</v>
+        <v>5.308116845877296</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.373378114385964</v>
+        <v>-4.664146908788864</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.940694804969237</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.59747388526465</v>
+        <v>-22.38822928036756</v>
       </c>
       <c r="F41" t="n">
-        <v>5.460600081049507</v>
+        <v>5.437734195932945</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.718512665148959</v>
+        <v>-4.951151167904239</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.381539716204018</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.99351531096718</v>
+        <v>-21.8540466120747</v>
       </c>
       <c r="F42" t="n">
-        <v>5.407769472845624</v>
+        <v>5.372304617033023</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.6615557351494</v>
+        <v>-4.927957719327595</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.789472730976815</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.40931810242578</v>
+        <v>-21.32211288694062</v>
       </c>
       <c r="F43" t="n">
-        <v>5.300670888418985</v>
+        <v>5.273967132911896</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.937178386278597</v>
+        <v>-5.133921800616988</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.145849885593162</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.59844697950673</v>
+        <v>-20.52287271135796</v>
       </c>
       <c r="F44" t="n">
-        <v>5.358644731846862</v>
+        <v>5.316961059299546</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.075776841948769</v>
+        <v>-5.24653029578264</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.439978137180804</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.92714722462437</v>
+        <v>-19.89104190891221</v>
       </c>
       <c r="F45" t="n">
-        <v>5.373042857069927</v>
+        <v>5.338194016122557</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.190424052977924</v>
+        <v>-5.351604831366376</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.665526209723913</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.34876304524774</v>
+        <v>-19.34222644306667</v>
       </c>
       <c r="F46" t="n">
-        <v>5.459045376865828</v>
+        <v>5.39140596686206</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.085095289037108</v>
+        <v>-5.295840819042344</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.819095178060566</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.73607270468596</v>
+        <v>-18.70649421314112</v>
       </c>
       <c r="F47" t="n">
-        <v>5.516887217108299</v>
+        <v>5.44655396432086</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.326768676482448</v>
+        <v>-5.549345603105618</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.908156504439545</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.96546255331595</v>
+        <v>-17.94016194277967</v>
       </c>
       <c r="F48" t="n">
-        <v>5.513440467267124</v>
+        <v>5.438032425351827</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.385329200734355</v>
+        <v>-5.587719418004033</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.943711254624355</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.33894610133454</v>
+        <v>-17.37027485733773</v>
       </c>
       <c r="F49" t="n">
-        <v>5.303873187916814</v>
+        <v>5.259867237107713</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.493992267358407</v>
+        <v>-5.668808485898685</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.936900188721652</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.80240204272496</v>
+        <v>-16.70931046297203</v>
       </c>
       <c r="F50" t="n">
-        <v>5.377892751881907</v>
+        <v>5.330777392705447</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.83656008951627</v>
+        <v>-6.014935505055663</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.905977544405479</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.30680341662579</v>
+        <v>-16.22186670032687</v>
       </c>
       <c r="F51" t="n">
-        <v>5.338995813248731</v>
+        <v>5.309519990848101</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.914666863222104</v>
+        <v>-6.113463660444599</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.870368687747584</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.54974559229087</v>
+        <v>-15.52488988137948</v>
       </c>
       <c r="F52" t="n">
-        <v>5.369395657947209</v>
+        <v>5.332165870655651</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.259390737408276</v>
+        <v>-6.430310417475623</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.845460807329623</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.19896912760346</v>
+        <v>-15.13579826987605</v>
       </c>
       <c r="F53" t="n">
-        <v>5.522710024286795</v>
+        <v>5.480992128691409</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.64238575734866</v>
+        <v>-6.790141322880563</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.84504216596279</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.61086071356853</v>
+        <v>-14.55992704002901</v>
       </c>
       <c r="F54" t="n">
-        <v>5.502880212434587</v>
+        <v>5.473247941814216</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.848941408468949</v>
+        <v>-6.988610556642976</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.884621199352851</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.19121769815375</v>
+        <v>-14.15982049605442</v>
       </c>
       <c r="F55" t="n">
-        <v>5.395454064547865</v>
+        <v>5.365714235776421</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.300817646157298</v>
+        <v>-7.361006209695887</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.972170564624526</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.8246790753274</v>
+        <v>-13.81963850924761</v>
       </c>
       <c r="F56" t="n">
-        <v>5.141054592227946</v>
+        <v>5.128245394236629</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.504855458741126</v>
+        <v>-7.661391680606009</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.105669679964898</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.38873122201146</v>
+        <v>-13.37887987317463</v>
       </c>
       <c r="F57" t="n">
-        <v>5.170970425246598</v>
+        <v>5.154064239500807</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.969746232709201</v>
+        <v>-8.104487261961378</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.290831293997542</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.03689384283393</v>
+        <v>-13.06503985536676</v>
       </c>
       <c r="F58" t="n">
-        <v>5.077106382408698</v>
+        <v>5.045366949828686</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.356368895744836</v>
+        <v>-8.490816584584996</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.524865549730251</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.73997467779245</v>
+        <v>-12.79357774908131</v>
       </c>
       <c r="F59" t="n">
-        <v>5.050383070874141</v>
+        <v>5.056611665622591</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.35391950330451</v>
+        <v>-8.505307600938533</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.795861447674173</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.17845757210667</v>
+        <v>-12.25820216311292</v>
       </c>
       <c r="F60" t="n">
-        <v>5.04017971354289</v>
+        <v>5.080118010638718</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.62551361277537</v>
+        <v>-8.774990108724428</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.098037679410647</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.94226965036601</v>
+        <v>-12.01773147135684</v>
       </c>
       <c r="F61" t="n">
-        <v>4.867187094563971</v>
+        <v>4.875772190622274</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.890903572532114</v>
+        <v>-9.03746622038849</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.424047999504513</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.72333014485182</v>
+        <v>-11.801608033798</v>
       </c>
       <c r="F62" t="n">
-        <v>4.802138858199668</v>
+        <v>4.851121817999289</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.995963441095249</v>
+        <v>-9.151272522236537</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.760717775108597</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.66002728393901</v>
+        <v>-11.72258212680118</v>
       </c>
       <c r="F63" t="n">
-        <v>4.724501429153058</v>
+        <v>4.782221044223856</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.087695876939176</v>
+        <v>-9.229354850908036</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.094230020939748</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.66685233752522</v>
+        <v>-11.70244919652323</v>
       </c>
       <c r="F64" t="n">
-        <v>4.659819868303773</v>
+        <v>4.672335725883076</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.219146604569918</v>
+        <v>-9.399076724292987</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.419301046782237</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.63815386721643</v>
+        <v>-11.69958912750608</v>
       </c>
       <c r="F65" t="n">
-        <v>4.75058428078805</v>
+        <v>4.797846310170517</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.259578691359303</v>
+        <v>-9.444735159423107</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.726342005208193</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.53094283563185</v>
+        <v>-11.58962558505543</v>
       </c>
       <c r="F66" t="n">
-        <v>4.596218777972077</v>
+        <v>4.637780225347721</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.409651646146125</v>
+        <v>-9.631294772457714</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.999827442702625</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.75991947224381</v>
+        <v>-11.80770462536104</v>
       </c>
       <c r="F67" t="n">
-        <v>4.511213615577027</v>
+        <v>4.555258678441064</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.58341183920315</v>
+        <v>-9.796944103122527</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.23835435437337</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.56597745884016</v>
+        <v>-11.56754194103758</v>
       </c>
       <c r="F68" t="n">
-        <v>4.491002461189201</v>
+        <v>4.527650456663595</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.731084291618314</v>
+        <v>-9.931054450488871</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.43692910206688</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.73418862910324</v>
+        <v>-11.76947748066863</v>
       </c>
       <c r="F69" t="n">
-        <v>4.508646886971897</v>
+        <v>4.555141342276258</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.764041086908188</v>
+        <v>-10.04360916657899</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.586105066101468</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.79161979276889</v>
+        <v>-11.79594167483924</v>
       </c>
       <c r="F70" t="n">
-        <v>4.622868754403631</v>
+        <v>4.662420819956973</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.760340108709935</v>
+        <v>-10.03852459943739</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.684466781590527</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.09992056579655</v>
+        <v>-12.13720902117051</v>
       </c>
       <c r="F71" t="n">
-        <v>4.438421192335531</v>
+        <v>4.483287608353208</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.62325235616164</v>
+        <v>-9.932780269912891</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.732931653463145</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.22068392441621</v>
+        <v>-12.2197403460909</v>
       </c>
       <c r="F72" t="n">
-        <v>4.246102329211697</v>
+        <v>4.266826829320549</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.596846830073432</v>
+        <v>-9.891233489557848</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.728290303297102</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.3674372435404</v>
+        <v>-12.32213570591157</v>
       </c>
       <c r="F73" t="n">
-        <v>4.311179899617202</v>
+        <v>4.388699992499006</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.464613861343983</v>
+        <v>-9.771501711387101</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.668311486396786</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.60952619656943</v>
+        <v>-12.55642669298786</v>
       </c>
       <c r="F74" t="n">
-        <v>4.258324846378985</v>
+        <v>4.291115415435383</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.449418828001612</v>
+        <v>-9.727666875818342</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.559748862382186</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.13808650696533</v>
+        <v>-13.0862385891417</v>
       </c>
       <c r="F75" t="n">
-        <v>4.317154266008572</v>
+        <v>4.319266316975079</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.45281179876725</v>
+        <v>-9.738716031337569</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.404699301036114</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.21762087067631</v>
+        <v>-13.14422709959018</v>
       </c>
       <c r="F76" t="n">
-        <v>4.259786659432192</v>
+        <v>4.230594399429843</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.364022545057209</v>
+        <v>-9.652576619349395</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.200221365816822</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.7163631281909</v>
+        <v>-13.61316597124406</v>
       </c>
       <c r="F77" t="n">
-        <v>4.310823002115917</v>
+        <v>4.279411132995988</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.168335156202071</v>
+        <v>-9.498367564753163</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.956219057981818</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.01520367293108</v>
+        <v>-13.88392894954755</v>
       </c>
       <c r="F78" t="n">
-        <v>4.28113695242001</v>
+        <v>4.292479448351252</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.046823779531765</v>
+        <v>-9.429461901970864</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.676128548252487</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.23767793041004</v>
+        <v>-14.16486595114108</v>
       </c>
       <c r="F79" t="n">
-        <v>4.391491615420014</v>
+        <v>4.377025044100813</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.946115127080185</v>
+        <v>-9.260087148073463</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.359001647995053</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.95590237320105</v>
+        <v>-14.80439205039536</v>
       </c>
       <c r="F80" t="n">
-        <v>4.279792475531607</v>
+        <v>4.282398316191673</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.963045757860311</v>
+        <v>-9.24007644296718</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.011455319776702</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.55435103675951</v>
+        <v>-15.40166735230575</v>
       </c>
       <c r="F81" t="n">
-        <v>4.33089726431147</v>
+        <v>4.347573666734517</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.62537183157623</v>
+        <v>-8.943670623646728</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.639949510541006</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.3627483222039</v>
+        <v>-16.21597055804537</v>
       </c>
       <c r="F82" t="n">
-        <v>4.347446552555977</v>
+        <v>4.330858152256535</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.597621828599621</v>
+        <v>-8.886268794022278</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.247110943298805</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.115611378647</v>
+        <v>-16.93367676610849</v>
       </c>
       <c r="F83" t="n">
-        <v>4.380202898564307</v>
+        <v>4.394092567073212</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.622365092353077</v>
+        <v>-8.949200090413209</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.837204191138759</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.25573266901843</v>
+        <v>-18.0516508553728</v>
       </c>
       <c r="F84" t="n">
-        <v>4.395686383311827</v>
+        <v>4.434509986841999</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.47987498721684</v>
+        <v>-8.792302082040173</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.42225412107581</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.35358360601851</v>
+        <v>-19.12765282068464</v>
       </c>
       <c r="F85" t="n">
-        <v>4.602530485837264</v>
+        <v>4.642820791427511</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.383546884918015</v>
+        <v>-8.660206005502999</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.009173493718023</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.50725233441817</v>
+        <v>-20.27394403772212</v>
       </c>
       <c r="F86" t="n">
-        <v>4.608827526681851</v>
+        <v>4.612772955223451</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.062260909651833</v>
+        <v>-8.315477242309958</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.601590385692293</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.44105753500579</v>
+        <v>-21.23910243934727</v>
       </c>
       <c r="F87" t="n">
-        <v>4.687252085834033</v>
+        <v>4.679913686526795</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.901661923080543</v>
+        <v>-8.113331475383626</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.214799231162201</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.88737732545211</v>
+        <v>-22.64592394331578</v>
       </c>
       <c r="F88" t="n">
-        <v>4.761291205826593</v>
+        <v>4.740835601095421</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.920484599518167</v>
+        <v>-8.150365702400507</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.859427592605821</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.421254339878</v>
+        <v>-24.17646176605157</v>
       </c>
       <c r="F89" t="n">
-        <v>4.570698162126781</v>
+        <v>4.570571047948241</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.444349109756186</v>
+        <v>-7.659704973236923</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.543551645546653</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.96988637702825</v>
+        <v>-25.74610675471581</v>
       </c>
       <c r="F90" t="n">
-        <v>4.794360448274406</v>
+        <v>4.754143477787164</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.530459187703159</v>
+        <v>-7.713102706237368</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.27995051400799</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.85709925123639</v>
+        <v>-27.60823657919325</v>
       </c>
       <c r="F91" t="n">
-        <v>4.673694869792079</v>
+        <v>4.707653911489669</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.212082171522791</v>
+        <v>-7.400313824905884</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.084253345715255</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.59488696406757</v>
+        <v>-29.38131803259669</v>
       </c>
       <c r="F92" t="n">
-        <v>4.695920295009073</v>
+        <v>4.75413369977343</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.219875248468654</v>
+        <v>-7.334033558811117</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.967294477558933</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.29826829107284</v>
+        <v>-31.10140754056964</v>
       </c>
       <c r="F93" t="n">
-        <v>4.767378019375903</v>
+        <v>4.838302841994238</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.208356748290202</v>
+        <v>-7.315543334840445</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.934676624591732</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.5074638240257</v>
+        <v>-33.33863419439396</v>
       </c>
       <c r="F94" t="n">
-        <v>4.652921479614557</v>
+        <v>4.752984783159705</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.893910493630833</v>
+        <v>-7.015896103967228</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.99818464258172</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.70109520361773</v>
+        <v>-35.49022011493052</v>
       </c>
       <c r="F95" t="n">
-        <v>4.611853821932471</v>
+        <v>4.716092337341965</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.652838454030124</v>
+        <v>-6.778021474857481</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.166559066514109</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.90507172174016</v>
+        <v>-37.65530947243351</v>
       </c>
       <c r="F96" t="n">
-        <v>4.593534713202141</v>
+        <v>4.66258215718358</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.403856001318746</v>
+        <v>-6.562660722369878</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.428607020848274</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.39039347352951</v>
+        <v>-40.15831965106735</v>
       </c>
       <c r="F97" t="n">
-        <v>4.259781770425325</v>
+        <v>4.295143957093721</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.337849519608528</v>
+        <v>-6.494835530105167</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.796412531706852</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.48890433551884</v>
+        <v>-42.25913323529101</v>
       </c>
       <c r="F98" t="n">
-        <v>4.282046307697255</v>
+        <v>4.359972188149013</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.240792955286532</v>
+        <v>-6.393334858541145</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.242682837802639</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.98115625454204</v>
+        <v>-44.74104001578382</v>
       </c>
       <c r="F99" t="n">
-        <v>3.813977679265685</v>
+        <v>3.87767654973472</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.817932973353325</v>
+        <v>-6.002732543915843</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.786589001080657</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.55723752980879</v>
+        <v>-47.33221732200388</v>
       </c>
       <c r="F100" t="n">
-        <v>3.544353839562193</v>
+        <v>3.626929165544386</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.809303876233219</v>
+        <v>-6.026644676501924</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.35749384123657</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.70179794747761</v>
+        <v>-49.44175656123327</v>
       </c>
       <c r="F101" t="n">
-        <v>3.562164491578364</v>
+        <v>3.627579403457686</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.859132634220817</v>
+        <v>-6.080775760532406</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.030387642077812</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.85637105120986</v>
+        <v>-51.63241175789506</v>
       </c>
       <c r="F102" t="n">
-        <v>3.216179253620527</v>
+        <v>3.246882216744753</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.812080832133628</v>
+        <v>-6.013532360084858</v>
       </c>
     </row>
   </sheetData>
